--- a/app/api/data/_Item List.xlsx
+++ b/app/api/data/_Item List.xlsx
@@ -437,8 +437,10 @@
           <t>28 lb</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>26.2</v>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
       </c>
       <c r="F2" s="5" t="n"/>
       <c r="G2" s="5" t="n"/>
@@ -759,8 +761,10 @@
           <t>11 lb</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>49.6</v>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
       </c>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="n"/>
